--- a/data/trans_orig/P16A20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A20-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1705</v>
+        <v>1761</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10322</v>
+        <v>10410</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004512326833323677</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001652663817530997</v>
+        <v>0.001706573060051991</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01000431736558454</v>
+        <v>0.01008977753428819</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>6592</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2707</v>
+        <v>2862</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12438</v>
+        <v>12740</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005012566758170772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002058311723161438</v>
+        <v>0.002176343761653844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009458005641036058</v>
+        <v>0.009687487421487203</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>11248</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5807</v>
+        <v>6481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19374</v>
+        <v>19246</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004792649783977657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002474539942083141</v>
+        <v>0.002761626495259678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00825519090385685</v>
+        <v>0.008200773801674282</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1027068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1021401</v>
+        <v>1021313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1030018</v>
+        <v>1029962</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9954876731666763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9899956826344153</v>
+        <v>0.9899102224657116</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.998347336182469</v>
+        <v>0.998293426939948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1284</v>
@@ -836,19 +836,19 @@
         <v>1308521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1302675</v>
+        <v>1302373</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1312406</v>
+        <v>1312251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9949874332418293</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.990541994358964</v>
+        <v>0.9903125125785144</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9979416882768386</v>
+        <v>0.9978236562383462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2317</v>
@@ -857,19 +857,19 @@
         <v>2335587</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2327461</v>
+        <v>2327589</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2341028</v>
+        <v>2340354</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9952073502160224</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9917448090961432</v>
+        <v>0.9917992261983253</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9975254600579169</v>
+        <v>0.99723837350474</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8066</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3980</v>
+        <v>3158</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15623</v>
+        <v>15651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004766267454414018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002351677754696217</v>
+        <v>0.00186570055664559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009231489163884905</v>
+        <v>0.009247928520433728</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -982,19 +982,19 @@
         <v>9192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4236</v>
+        <v>4230</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17598</v>
+        <v>18173</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005789754094729246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002667773854253557</v>
+        <v>0.002664383114869585</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01108415709170564</v>
+        <v>0.01144659767672619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1003,19 +1003,19 @@
         <v>17259</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10285</v>
+        <v>10657</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27497</v>
+        <v>26349</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005261672560552679</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003135706481964396</v>
+        <v>0.003248922810362587</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008383143497272325</v>
+        <v>0.008033047003388416</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1684328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1676771</v>
+        <v>1676743</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1688414</v>
+        <v>1689236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.995233732545586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9907685108361151</v>
+        <v>0.9907520714795663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9976483222453039</v>
+        <v>0.9981342994433544</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1545</v>
@@ -1053,19 +1053,19 @@
         <v>1578481</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1570075</v>
+        <v>1569500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1583437</v>
+        <v>1583443</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9942102459052707</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9889158429082945</v>
+        <v>0.9885534023232726</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9973322261457465</v>
+        <v>0.9973356168851303</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3185</v>
@@ -1074,19 +1074,19 @@
         <v>3262808</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3252570</v>
+        <v>3253718</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3269782</v>
+        <v>3269410</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9947383274394473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9916168565027277</v>
+        <v>0.9919669529966116</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9968642935180356</v>
+        <v>0.9967510771896374</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6201</v>
+        <v>5915</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003156159818567289</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01124632391390788</v>
+        <v>0.01072706122417431</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>2978</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8054</v>
+        <v>7983</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006251712397741992</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001958136503166822</v>
+        <v>0.001956421436905098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01690525921745271</v>
+        <v>0.01675679394342282</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1220,19 +1220,19 @@
         <v>4719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1785</v>
+        <v>1852</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10282</v>
+        <v>10875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004591000436827466</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001736941453899208</v>
+        <v>0.001801636436091055</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01000392123452166</v>
+        <v>0.01058079748877692</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>549668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>545207</v>
+        <v>545493</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>551408</v>
@@ -1258,7 +1258,7 @@
         <v>0.9968438401814327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9887536760860921</v>
+        <v>0.9892729387758257</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>473434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>468358</v>
+        <v>468429</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>475479</v>
+        <v>475480</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.993748287602258</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9830947407825473</v>
+        <v>0.9832432060565772</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9980418634968332</v>
+        <v>0.9980435785630949</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>974</v>
@@ -1291,19 +1291,19 @@
         <v>1023101</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1017538</v>
+        <v>1016945</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1026035</v>
+        <v>1025968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9954089995631725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9899960787654783</v>
+        <v>0.9894192025112235</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9982630585461008</v>
+        <v>0.998198363563909</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>14462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8635</v>
+        <v>8564</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23909</v>
+        <v>23331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004415232919933159</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0026362524286757</v>
+        <v>0.002614435593765683</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007299205830375028</v>
+        <v>0.007122860897009029</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>18763</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11460</v>
+        <v>11160</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28621</v>
+        <v>28268</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005552417681264333</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003391280361682762</v>
+        <v>0.003302504445240993</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008469660939762112</v>
+        <v>0.008365341556381946</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1437,19 +1437,19 @@
         <v>33225</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22895</v>
+        <v>23326</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45458</v>
+        <v>45914</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004992683250538844</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003440422952687366</v>
+        <v>0.003505247300488199</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006830873441746001</v>
+        <v>0.006899424838783807</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3261063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3251616</v>
+        <v>3252194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3266890</v>
+        <v>3266961</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9955847670800668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9927007941696251</v>
+        <v>0.9928771391029909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9973637475713243</v>
+        <v>0.9973855644062343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3278</v>
@@ -1487,19 +1487,19 @@
         <v>3360434</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3350576</v>
+        <v>3350929</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3367737</v>
+        <v>3368037</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9944475823187356</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9915303390602378</v>
+        <v>0.9916346584436181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9966087196383171</v>
+        <v>0.9966974955547591</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6476</v>
@@ -1508,19 +1508,19 @@
         <v>6621497</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6609264</v>
+        <v>6608808</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6631827</v>
+        <v>6631396</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9950073167494612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.993169126558254</v>
+        <v>0.9931005751612162</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9965595770473126</v>
+        <v>0.9964947526995118</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>4103</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10121</v>
+        <v>9274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004212781787295253</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0010734848264817</v>
+        <v>0.001073875904774169</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01039308627497503</v>
+        <v>0.009523681418655807</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -1872,19 +1872,19 @@
         <v>49753</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36356</v>
+        <v>37362</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65577</v>
+        <v>65200</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03730372043268898</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02725836309835781</v>
+        <v>0.02801275519759444</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04916797881430589</v>
+        <v>0.04888501087902159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -1893,19 +1893,19 @@
         <v>53856</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40524</v>
+        <v>39582</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68485</v>
+        <v>71349</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02333885437813785</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01756146293925811</v>
+        <v>0.01715332176517778</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02967827583266564</v>
+        <v>0.03091973161192258</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>969725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>963707</v>
+        <v>964554</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>972783</v>
+        <v>972782</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9957872182127048</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9896069137250256</v>
+        <v>0.9904763185813446</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9989265151735183</v>
+        <v>0.9989261240952259</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1196</v>
@@ -1943,19 +1943,19 @@
         <v>1283987</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1268163</v>
+        <v>1268540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1297384</v>
+        <v>1296378</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.962696279567311</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9508320211856941</v>
+        <v>0.9511149891209786</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9727416369016422</v>
+        <v>0.9719872448024056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2099</v>
@@ -1964,19 +1964,19 @@
         <v>2253712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2239083</v>
+        <v>2236219</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2267044</v>
+        <v>2267986</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9766611456218621</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9703217241673343</v>
+        <v>0.9690802683880769</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9824385370607419</v>
+        <v>0.9828466782348222</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>4805</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1913</v>
+        <v>1894</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10647</v>
+        <v>10697</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002451437635722947</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.000975878377008053</v>
+        <v>0.0009664922051143954</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005432083062450133</v>
+        <v>0.005457790363759551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -2089,19 +2089,19 @@
         <v>58873</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44151</v>
+        <v>45657</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77270</v>
+        <v>76951</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03360669288572116</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02520297734226206</v>
+        <v>0.02606270175585555</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0441086654772485</v>
+        <v>0.04392634552585256</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -2110,19 +2110,19 @@
         <v>63678</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48975</v>
+        <v>48383</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82312</v>
+        <v>82542</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01715528711322526</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01319435431804016</v>
+        <v>0.01303484964590915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02217556018022124</v>
+        <v>0.02223751060546879</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1955217</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1949375</v>
+        <v>1949325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1958109</v>
+        <v>1958128</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.997548562364277</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9945679169375499</v>
+        <v>0.9945422096362404</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.999024121622992</v>
+        <v>0.9990335077948856</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1577</v>
@@ -2160,19 +2160,19 @@
         <v>1692945</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1674548</v>
+        <v>1674867</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1707667</v>
+        <v>1706161</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9663933071142788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9558913345227513</v>
+        <v>0.9560736544741474</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9747970226577379</v>
+        <v>0.9739372982441443</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3424</v>
@@ -2181,19 +2181,19 @@
         <v>3648162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3629528</v>
+        <v>3629298</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3662865</v>
+        <v>3663457</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9828447128867748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.977824439819779</v>
+        <v>0.9777624893945313</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9868056456819599</v>
+        <v>0.9869651503540908</v>
       </c>
     </row>
     <row r="9">
@@ -2298,19 +2298,19 @@
         <v>13523</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7261</v>
+        <v>7580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23330</v>
+        <v>23930</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02954941084186439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01586605900846703</v>
+        <v>0.01656327755381846</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05097772449306789</v>
+        <v>0.05228837251796892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -2319,19 +2319,19 @@
         <v>13523</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7209</v>
+        <v>7207</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23184</v>
+        <v>22949</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01441749889463349</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007685896987322144</v>
+        <v>0.007683232169692767</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02471693771258748</v>
+        <v>0.02446610059067557</v>
       </c>
     </row>
     <row r="11">
@@ -2361,19 +2361,19 @@
         <v>444131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>434324</v>
+        <v>433724</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>450393</v>
+        <v>450074</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9704505891581356</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9490222755069321</v>
+        <v>0.9477116274820311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.984133940991533</v>
+        <v>0.9834367224461815</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>836</v>
@@ -2382,19 +2382,19 @@
         <v>924463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>914802</v>
+        <v>915037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>930777</v>
+        <v>930779</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9855825011053665</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9752830622874126</v>
+        <v>0.9755338994093244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9923141030126779</v>
+        <v>0.9923167678303072</v>
       </c>
     </row>
     <row r="12">
@@ -2486,19 +2486,19 @@
         <v>8907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4833</v>
+        <v>4031</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16156</v>
+        <v>17070</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00260894027090147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001415683039911193</v>
+        <v>0.001180801582624155</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.004731905690946342</v>
+        <v>0.004999754524003177</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -2507,19 +2507,19 @@
         <v>122150</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99020</v>
+        <v>98574</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>145722</v>
+        <v>144023</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03447427907883852</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02794635327635376</v>
+        <v>0.02782059254116396</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04112719547436318</v>
+        <v>0.04064765782003909</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -2528,19 +2528,19 @@
         <v>131057</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109370</v>
+        <v>107643</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157103</v>
+        <v>153889</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01883709441761781</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01571990341557705</v>
+        <v>0.01547171856068293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0225807284939153</v>
+        <v>0.02211876153603054</v>
       </c>
     </row>
     <row r="14">
@@ -2557,19 +2557,19 @@
         <v>3405275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3398026</v>
+        <v>3397112</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3409349</v>
+        <v>3410151</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9973910597290986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9952680943090539</v>
+        <v>0.9950002454759965</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9985843169600888</v>
+        <v>0.9988191984173758</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3172</v>
@@ -2578,19 +2578,19 @@
         <v>3421063</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3397491</v>
+        <v>3399190</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3444193</v>
+        <v>3444639</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9655257209211615</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9588728045256369</v>
+        <v>0.9593523421799609</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9720536467236462</v>
+        <v>0.9721794074588361</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6359</v>
@@ -2599,19 +2599,19 @@
         <v>6826338</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6800292</v>
+        <v>6803506</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6848025</v>
+        <v>6849752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9811629055823822</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9774192715060847</v>
+        <v>0.9778812384639692</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9842800965844231</v>
+        <v>0.984528281439317</v>
       </c>
     </row>
     <row r="15">
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5813</v>
+        <v>4681</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001233404224689183</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007705629109619237</v>
+        <v>0.006205775325354236</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -2963,19 +2963,19 @@
         <v>37912</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26898</v>
+        <v>26343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52008</v>
+        <v>51458</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03811510839158834</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02704237864580269</v>
+        <v>0.02648455684591684</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05228727939526912</v>
+        <v>0.05173400892051803</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -2984,19 +2984,19 @@
         <v>38842</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27663</v>
+        <v>27851</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53288</v>
+        <v>54681</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02220802769691877</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01581645106160067</v>
+        <v>0.01592384736236521</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.030467675132014</v>
+        <v>0.03126421892004221</v>
       </c>
     </row>
     <row r="5">
@@ -3013,7 +3013,7 @@
         <v>753417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>748534</v>
+        <v>749666</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>754347</v>
@@ -3022,7 +3022,7 @@
         <v>0.9987665957753108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9922943708903805</v>
+        <v>0.9937942246746457</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3034,19 +3034,19 @@
         <v>956748</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>942652</v>
+        <v>943202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>967762</v>
+        <v>968317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9618848916084116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9477127206047307</v>
+        <v>0.9482659910794817</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9729576213541973</v>
+        <v>0.9735154431540831</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1620</v>
@@ -3055,19 +3055,19 @@
         <v>1710165</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1695719</v>
+        <v>1694326</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1721344</v>
+        <v>1721156</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9777919723030812</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9695323248679865</v>
+        <v>0.9687357810799582</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9841835489383995</v>
+        <v>0.9840761526376349</v>
       </c>
     </row>
     <row r="6">
@@ -3159,19 +3159,19 @@
         <v>11346</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5779</v>
+        <v>6095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20611</v>
+        <v>20722</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005464121235881468</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002783424978982091</v>
+        <v>0.002935327266747324</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009926159409212709</v>
+        <v>0.009980067298372303</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -3180,19 +3180,19 @@
         <v>100400</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82822</v>
+        <v>82197</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122182</v>
+        <v>122174</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05049522301257862</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04165463478900387</v>
+        <v>0.04134037626045791</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06145027500917624</v>
+        <v>0.06144626011140412</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -3201,19 +3201,19 @@
         <v>111745</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90117</v>
+        <v>90643</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134379</v>
+        <v>134768</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02749174254317144</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02217072226573854</v>
+        <v>0.02230023144715303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0330600470590276</v>
+        <v>0.03315577239438872</v>
       </c>
     </row>
     <row r="8">
@@ -3230,19 +3230,19 @@
         <v>2065039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2055774</v>
+        <v>2055663</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2070606</v>
+        <v>2070290</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9945358787641185</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9900738405907873</v>
+        <v>0.9900199327016277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9972165750210179</v>
+        <v>0.9970646727332527</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1816</v>
@@ -3251,19 +3251,19 @@
         <v>1887900</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1866118</v>
+        <v>1866126</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1905478</v>
+        <v>1906103</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9495047769874214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9385497249908237</v>
+        <v>0.9385537398885959</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9583453652109961</v>
+        <v>0.9586596237395422</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3757</v>
@@ -3272,19 +3272,19 @@
         <v>3952940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3930306</v>
+        <v>3929917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3974568</v>
+        <v>3974042</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9725082574568286</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9669399529409723</v>
+        <v>0.9668442276056112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9778292777342613</v>
+        <v>0.977699768552847</v>
       </c>
     </row>
     <row r="9">
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6095</v>
+        <v>6956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003648540746030846</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01114575481578446</v>
+        <v>0.01271991829105838</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3397,19 +3397,19 @@
         <v>16387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9586</v>
+        <v>10263</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25263</v>
+        <v>25677</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02984064181157476</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01745576820359227</v>
+        <v>0.01868868707049011</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04600403400367554</v>
+        <v>0.04675900846421426</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -3418,19 +3418,19 @@
         <v>18382</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11503</v>
+        <v>11244</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28047</v>
+        <v>27893</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01677152527307425</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01049530846993412</v>
+        <v>0.01025842284222544</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02558962417713915</v>
+        <v>0.02544921667837523</v>
       </c>
     </row>
     <row r="11">
@@ -3447,7 +3447,7 @@
         <v>544891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540791</v>
+        <v>539930</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -3456,7 +3456,7 @@
         <v>0.9963514592539692</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9888542451842155</v>
+        <v>0.9872800817089417</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3468,19 +3468,19 @@
         <v>532753</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>523877</v>
+        <v>523463</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539554</v>
+        <v>538877</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9701593581884252</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9539959659963245</v>
+        <v>0.9532409915357856</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9825442317964077</v>
+        <v>0.9813113129295098</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1008</v>
@@ -3489,19 +3489,19 @@
         <v>1077645</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1067980</v>
+        <v>1068134</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1084524</v>
+        <v>1084783</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9832284747269258</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9744103758228607</v>
+        <v>0.9745507833216246</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9895046915300659</v>
+        <v>0.9897415771577746</v>
       </c>
     </row>
     <row r="12">
@@ -3593,19 +3593,19 @@
         <v>14271</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8191</v>
+        <v>8188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24039</v>
+        <v>22878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004225276619746422</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002425141712357388</v>
+        <v>0.002424250556908912</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007117174061616445</v>
+        <v>0.006773444081156477</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -3614,19 +3614,19 @@
         <v>154698</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130501</v>
+        <v>131276</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>179739</v>
+        <v>182690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04379771502675042</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03694708495976809</v>
+        <v>0.03716652682802516</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05088725808153328</v>
+        <v>0.05172289044365039</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>156</v>
@@ -3635,19 +3635,19 @@
         <v>168969</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>144353</v>
+        <v>146332</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>198334</v>
+        <v>197338</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02445386224751745</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02089126508518407</v>
+        <v>0.02117765240839156</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02870362957348238</v>
+        <v>0.028559530067267</v>
       </c>
     </row>
     <row r="14">
@@ -3664,19 +3664,19 @@
         <v>3363347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3353579</v>
+        <v>3354740</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3369427</v>
+        <v>3369430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9957747233802535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9928828259383835</v>
+        <v>0.9932265559188436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975748582876426</v>
+        <v>0.997575749443091</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3184</v>
@@ -3685,19 +3685,19 @@
         <v>3377402</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3352361</v>
+        <v>3349410</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3401599</v>
+        <v>3400824</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9562022849732495</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9491127419184667</v>
+        <v>0.9482771095563497</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9630529150402319</v>
+        <v>0.962833473171975</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6385</v>
@@ -3706,19 +3706,19 @@
         <v>6740749</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6711384</v>
+        <v>6712380</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6765365</v>
+        <v>6763386</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9755461377524826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9712963704265177</v>
+        <v>0.971440469932733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.979108734914816</v>
+        <v>0.9788223475916085</v>
       </c>
     </row>
     <row r="15">
@@ -4049,19 +4049,19 @@
         <v>12455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7349</v>
+        <v>7566</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20140</v>
+        <v>20218</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0215658123157652</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01272436251242468</v>
+        <v>0.01310021462273406</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03487185462990565</v>
+        <v>0.03500737100416389</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>141</v>
@@ -4070,19 +4070,19 @@
         <v>80623</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68152</v>
+        <v>68987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94366</v>
+        <v>95576</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09830644801581817</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08310020321991803</v>
+        <v>0.08411817560863571</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1150645797780625</v>
+        <v>0.1165395699482411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>157</v>
@@ -4091,19 +4091,19 @@
         <v>93078</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78415</v>
+        <v>79857</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108200</v>
+        <v>109673</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06659558623430779</v>
+        <v>0.06659558623430778</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05610454637737834</v>
+        <v>0.05713615053310735</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07741522662648322</v>
+        <v>0.0784694803626249</v>
       </c>
     </row>
     <row r="5">
@@ -4120,19 +4120,19 @@
         <v>565087</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>557402</v>
+        <v>557324</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>570193</v>
+        <v>569976</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9784341876842346</v>
+        <v>0.9784341876842348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9651281453700942</v>
+        <v>0.9649926289958362</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872756374875756</v>
+        <v>0.986899785377266</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1283</v>
@@ -4141,19 +4141,19 @@
         <v>739493</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>725750</v>
+        <v>724540</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>751964</v>
+        <v>751129</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9016935519841817</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8849354202219374</v>
+        <v>0.8834604300517588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.916899796780082</v>
+        <v>0.9158818243913641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1957</v>
@@ -4162,19 +4162,19 @@
         <v>1304580</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1289458</v>
+        <v>1287985</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1319243</v>
+        <v>1317801</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9334044137656925</v>
+        <v>0.9334044137656922</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9225847733735169</v>
+        <v>0.9215305196373752</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9438954536226216</v>
+        <v>0.9428638494668928</v>
       </c>
     </row>
     <row r="6">
@@ -4266,19 +4266,19 @@
         <v>25545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16784</v>
+        <v>16235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41885</v>
+        <v>39821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01145202869347425</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007524679026202736</v>
+        <v>0.007278627241405585</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01877790263014312</v>
+        <v>0.01785250835737717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>264</v>
@@ -4287,19 +4287,19 @@
         <v>175889</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>154765</v>
+        <v>153072</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>200714</v>
+        <v>198674</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08104251595931251</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07130934091484044</v>
+        <v>0.0705294715426994</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09248104396005055</v>
+        <v>0.09154102944747357</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>288</v>
@@ -4308,19 +4308,19 @@
         <v>201433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>177837</v>
+        <v>175697</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>231113</v>
+        <v>225819</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04577100759678088</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04040931511135411</v>
+        <v>0.03992297311303281</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05251507647531919</v>
+        <v>0.05131200007182647</v>
       </c>
     </row>
     <row r="8">
@@ -4337,19 +4337,19 @@
         <v>2205021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2188681</v>
+        <v>2190745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2213782</v>
+        <v>2214331</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9885479713065259</v>
+        <v>0.9885479713065257</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9812220973698569</v>
+        <v>0.9821474916426226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9924753209737972</v>
+        <v>0.9927213727585943</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2655</v>
@@ -4358,19 +4358,19 @@
         <v>1994440</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1969615</v>
+        <v>1971655</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2015564</v>
+        <v>2017257</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9189574840406876</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9075189560399496</v>
+        <v>0.9084589705525266</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9286906590851596</v>
+        <v>0.9294705284573005</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4623</v>
@@ -4379,19 +4379,19 @@
         <v>4199462</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4169782</v>
+        <v>4175076</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4223058</v>
+        <v>4225198</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9542289924032191</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9474849235246808</v>
+        <v>0.9486879999281738</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9595906848886457</v>
+        <v>0.9600770268869669</v>
       </c>
     </row>
     <row r="9">
@@ -4483,19 +4483,19 @@
         <v>9404</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4846</v>
+        <v>4955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17141</v>
+        <v>17257</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01321541824201816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00680954086880287</v>
+        <v>0.006962974915748962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02408826410390057</v>
+        <v>0.02425199911920914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -4504,19 +4504,19 @@
         <v>53156</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42125</v>
+        <v>41786</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65178</v>
+        <v>65730</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0724039265212689</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05737882006630821</v>
+        <v>0.05691711155231096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08877956132872925</v>
+        <v>0.08953226672011033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -4525,19 +4525,19 @@
         <v>62559</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50824</v>
+        <v>51142</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77030</v>
+        <v>78716</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04327160535985729</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03515450514641953</v>
+        <v>0.0353743636827005</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05328054638710562</v>
+        <v>0.05444691045921509</v>
       </c>
     </row>
     <row r="11">
@@ -4554,19 +4554,19 @@
         <v>702183</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>694446</v>
+        <v>694330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>706741</v>
+        <v>706632</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9867845817579818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9759117358960993</v>
+        <v>0.9757480008807909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931904591311972</v>
+        <v>0.993037025084251</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>922</v>
@@ -4575,19 +4575,19 @@
         <v>680997</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>668975</v>
+        <v>668423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>692028</v>
+        <v>692367</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9275960734787311</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.911220438671271</v>
+        <v>0.9104677332798895</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9426211799336921</v>
+        <v>0.9430828884476891</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1592</v>
@@ -4596,19 +4596,19 @@
         <v>1383181</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1368710</v>
+        <v>1367024</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1394916</v>
+        <v>1394598</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9567283946401427</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.946719453612895</v>
+        <v>0.9455530895407851</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9648454948535807</v>
+        <v>0.9646256363172997</v>
       </c>
     </row>
     <row r="12">
@@ -4700,19 +4700,19 @@
         <v>47404</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34876</v>
+        <v>35011</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64778</v>
+        <v>62684</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01346809506486259</v>
+        <v>0.01346809506486258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009908940901700499</v>
+        <v>0.009947045571171494</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0184043190092478</v>
+        <v>0.01780958637042024</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>486</v>
@@ -4721,19 +4721,19 @@
         <v>309667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>281135</v>
+        <v>283453</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>338317</v>
+        <v>338665</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08314109843805054</v>
+        <v>0.08314109843805052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07548076084950396</v>
+        <v>0.0761029928328044</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09083306786608679</v>
+        <v>0.09092657421391946</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>537</v>
@@ -4742,19 +4742,19 @@
         <v>357071</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>324519</v>
+        <v>325317</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>387076</v>
+        <v>388332</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04928993605737685</v>
+        <v>0.04928993605737684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0447965326851336</v>
+        <v>0.04490663928453872</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05343184456409503</v>
+        <v>0.05360520536817315</v>
       </c>
     </row>
     <row r="14">
@@ -4771,19 +4771,19 @@
         <v>3472291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3454917</v>
+        <v>3457011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3484819</v>
+        <v>3484684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9865319049351374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9815956809907522</v>
+        <v>0.9821904136295799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9900910590982994</v>
+        <v>0.9900529544288285</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4860</v>
@@ -4792,19 +4792,19 @@
         <v>3414931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3386281</v>
+        <v>3385933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3443463</v>
+        <v>3441145</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9168589015619494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.909166932133913</v>
+        <v>0.9090734257860804</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9245192391504958</v>
+        <v>0.9238970071671957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8172</v>
@@ -4813,19 +4813,19 @@
         <v>6887222</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6857217</v>
+        <v>6855961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6919774</v>
+        <v>6918976</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9507100639426231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9465681554359051</v>
+        <v>0.9463947946318274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9552034673148664</v>
+        <v>0.9550933607154615</v>
       </c>
     </row>
     <row r="15">
